--- a/biology/Zoologie/Conus_ruppellii/Conus_ruppellii.xlsx
+++ b/biology/Zoologie/Conus_ruppellii/Conus_ruppellii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus ruppellii est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -514,10 +526,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Publication originale
-L'espèce Conus ruppellii a été décrite pour la première fois en 1848 par l'éditeur et naturaliste britannique Lovell Augustus Reeve (1814-1865) dans « Conchologia Iconica, or, illustrations of the shells of molluscous animals »[1],[2].
-Synonymes
-Conus (Splinoconus) ruppellii Reeve, 1848 · appellation alternative
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus ruppellii a été décrite pour la première fois en 1848 par l'éditeur et naturaliste britannique Lovell Augustus Reeve (1814-1865) dans « Conchologia Iconica, or, illustrations of the shells of molluscous animals »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Conus_ruppellii</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_ruppellii</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Conus (Splinoconus) ruppellii Reeve, 1848 · appellation alternative
 Kioconus (Nitidoconus) ruppellii (Reeve, 1848) · non accepté</t>
         </is>
       </c>
